--- a/Result_5050.xlsx
+++ b/Result_5050.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZongSing_NB\Documents\GitHub\S-shaped-Binary-Whale-Optimization-Algorithm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZongSing_NB\Videos\S-shaped-Binary-Whale-Optimization-Algorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA318FE-A089-40C8-8FD1-CF6141C1A6FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6FD08FE-355F-44DA-B627-F83B928880AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,83 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
+  <si>
+    <t>Breastcancer</t>
+  </si>
+  <si>
+    <t>BreastEW</t>
+  </si>
+  <si>
+    <t>Congress</t>
+  </si>
+  <si>
+    <t>Exactly</t>
+  </si>
+  <si>
+    <t>Exactly2</t>
+  </si>
+  <si>
+    <t>HeartEW</t>
+  </si>
+  <si>
+    <t>Ionosphere</t>
+  </si>
+  <si>
+    <t>KrVsKpEW</t>
+  </si>
+  <si>
+    <t>Lymphography</t>
+  </si>
+  <si>
+    <t>M-of-n</t>
+  </si>
+  <si>
+    <t>PenglungEW</t>
+  </si>
+  <si>
+    <t>Sonar</t>
+  </si>
+  <si>
+    <t>SpectEW</t>
+  </si>
+  <si>
+    <t>Tic-tac-toe</t>
+  </si>
+  <si>
+    <t>Vote</t>
+  </si>
+  <si>
+    <t>WaveformEW</t>
+  </si>
+  <si>
+    <t>Wine</t>
+  </si>
+  <si>
+    <t>Zoo</t>
+  </si>
+  <si>
+    <t>avg acc</t>
+  </si>
+  <si>
+    <t>% selected</t>
+  </si>
+  <si>
+    <t>avg time</t>
+  </si>
+  <si>
+    <t>avg loss</t>
+  </si>
+  <si>
+    <t>worst loss</t>
+  </si>
+  <si>
+    <t>best loss</t>
+  </si>
+  <si>
+    <t>std loss</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -350,17 +426,482 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="F8:K8"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="8" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F8" s="1"/>
-      <c r="K8" s="1"/>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>0.97428571428571398</v>
+      </c>
+      <c r="C2">
+        <v>0.95157894736842097</v>
+      </c>
+      <c r="D2">
+        <v>0.97018348623853101</v>
+      </c>
+      <c r="E2">
+        <v>0.89369999999999905</v>
+      </c>
+      <c r="F2">
+        <v>0.75949999999999895</v>
+      </c>
+      <c r="G2">
+        <v>0.844444444444444</v>
+      </c>
+      <c r="H2">
+        <v>0.88181818181818195</v>
+      </c>
+      <c r="I2">
+        <v>0.96066958698372895</v>
+      </c>
+      <c r="J2">
+        <v>0.85270270270270199</v>
+      </c>
+      <c r="K2">
+        <v>0.96419999999999895</v>
+      </c>
+      <c r="L2">
+        <v>0.88243243243243197</v>
+      </c>
+      <c r="M2">
+        <v>0.81923076923076898</v>
+      </c>
+      <c r="N2">
+        <v>0.86791044776119397</v>
+      </c>
+      <c r="O2">
+        <v>0.79206680584551103</v>
+      </c>
+      <c r="P2">
+        <v>0.96033333333333304</v>
+      </c>
+      <c r="Q2">
+        <v>0.82662000000000002</v>
+      </c>
+      <c r="R2">
+        <v>0.96011235955056096</v>
+      </c>
+      <c r="S2">
+        <v>0.96764705882352897</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3">
+        <v>0.54444444444444395</v>
+      </c>
+      <c r="C3">
+        <v>0.43833333333333302</v>
+      </c>
+      <c r="D3">
+        <v>0.43437500000000001</v>
+      </c>
+      <c r="E3">
+        <v>0.55384615384615299</v>
+      </c>
+      <c r="F3">
+        <v>0.29615384615384599</v>
+      </c>
+      <c r="G3">
+        <v>0.45769230769230701</v>
+      </c>
+      <c r="H3">
+        <v>0.44705882352941101</v>
+      </c>
+      <c r="I3">
+        <v>0.63472222222222197</v>
+      </c>
+      <c r="J3">
+        <v>0.51111111111111096</v>
+      </c>
+      <c r="K3">
+        <v>0.56153846153846099</v>
+      </c>
+      <c r="L3">
+        <v>0.50030769230769201</v>
+      </c>
+      <c r="M3">
+        <v>0.47749999999999898</v>
+      </c>
+      <c r="N3">
+        <v>0.527272727272727</v>
+      </c>
+      <c r="O3">
+        <v>0.85555555555555496</v>
+      </c>
+      <c r="P3">
+        <v>0.421875</v>
+      </c>
+      <c r="Q3">
+        <v>0.68124999999999902</v>
+      </c>
+      <c r="R3">
+        <v>0.48076923076923</v>
+      </c>
+      <c r="S3">
+        <v>0.52812499999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>7.1249348878860399</v>
+      </c>
+      <c r="C4">
+        <v>6.4245196819305397</v>
+      </c>
+      <c r="D4">
+        <v>4.7229973793029698</v>
+      </c>
+      <c r="E4">
+        <v>11.8737288832664</v>
+      </c>
+      <c r="F4">
+        <v>11.269421195983799</v>
+      </c>
+      <c r="G4">
+        <v>3.2342901229858398</v>
+      </c>
+      <c r="H4">
+        <v>4.3548183798789903</v>
+      </c>
+      <c r="I4">
+        <v>68.180570363998399</v>
+      </c>
+      <c r="J4">
+        <v>2.02974956035614</v>
+      </c>
+      <c r="K4">
+        <v>11.3011174559593</v>
+      </c>
+      <c r="L4">
+        <v>1.6349944949149999</v>
+      </c>
+      <c r="M4">
+        <v>2.9025977969169601</v>
+      </c>
+      <c r="N4">
+        <v>3.2681141972541798</v>
+      </c>
+      <c r="O4">
+        <v>10.049944627285001</v>
+      </c>
+      <c r="P4">
+        <v>3.5142143607139502</v>
+      </c>
+      <c r="Q4">
+        <v>197.36509579419999</v>
+      </c>
+      <c r="R4">
+        <v>2.3395298480987501</v>
+      </c>
+      <c r="S4">
+        <v>1.5779265761375401</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5">
+        <v>3.0901587301587301E-2</v>
+      </c>
+      <c r="C5">
+        <v>5.2320175438596399E-2</v>
+      </c>
+      <c r="D5">
+        <v>3.3862098623853198E-2</v>
+      </c>
+      <c r="E5">
+        <v>0.110775461538461</v>
+      </c>
+      <c r="F5">
+        <v>0.24105653846153799</v>
+      </c>
+      <c r="G5">
+        <v>0.158576923076923</v>
+      </c>
+      <c r="H5">
+        <v>0.121470588235294</v>
+      </c>
+      <c r="I5">
+        <v>4.5284331108329801E-2</v>
+      </c>
+      <c r="J5">
+        <v>0.150935435435435</v>
+      </c>
+      <c r="K5">
+        <v>4.10573846153846E-2</v>
+      </c>
+      <c r="L5">
+        <v>0.121394968814968</v>
+      </c>
+      <c r="M5">
+        <v>0.18373653846153801</v>
+      </c>
+      <c r="N5">
+        <v>0.136041383989145</v>
+      </c>
+      <c r="O5">
+        <v>0.21440941776849901</v>
+      </c>
+      <c r="P5">
+        <v>4.348875E-2</v>
+      </c>
+      <c r="Q5">
+        <v>0.1784587</v>
+      </c>
+      <c r="R5">
+        <v>4.4296456352636099E-2</v>
+      </c>
+      <c r="S5">
+        <v>3.7310661764705801E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>3.9498412698412602E-2</v>
+      </c>
+      <c r="C6">
+        <v>7.5140350877192896E-2</v>
+      </c>
+      <c r="D6">
+        <v>4.5246559633027497E-2</v>
+      </c>
+      <c r="E6">
+        <v>0.25915230769230702</v>
+      </c>
+      <c r="F6">
+        <v>0.25277076923076902</v>
+      </c>
+      <c r="G6">
+        <v>0.196051282051282</v>
+      </c>
+      <c r="H6">
+        <v>0.13911764705882301</v>
+      </c>
+      <c r="I6">
+        <v>5.31949659296342E-2</v>
+      </c>
+      <c r="J6">
+        <v>0.178363363363363</v>
+      </c>
+      <c r="K6">
+        <v>8.8103076923076798E-2</v>
+      </c>
+      <c r="L6">
+        <v>0.24625696465696401</v>
+      </c>
+      <c r="M6">
+        <v>0.242480769230769</v>
+      </c>
+      <c r="N6">
+        <v>0.16014925373134301</v>
+      </c>
+      <c r="O6">
+        <v>0.240060310832753</v>
+      </c>
+      <c r="P6">
+        <v>6.1899999999999997E-2</v>
+      </c>
+      <c r="Q6">
+        <v>0.18499199999999899</v>
+      </c>
+      <c r="R6">
+        <v>7.2895419187554003E-2</v>
+      </c>
+      <c r="S6">
+        <v>6.3235294117647001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7">
+        <v>2.1415873015872999E-2</v>
+      </c>
+      <c r="C7">
+        <v>3.5596491228070098E-2</v>
+      </c>
+      <c r="D7">
+        <v>2.5206422018348499E-2</v>
+      </c>
+      <c r="E7">
+        <v>4.6153846153846097E-3</v>
+      </c>
+      <c r="F7">
+        <v>0.23737230769230699</v>
+      </c>
+      <c r="G7">
+        <v>0.122717948717948</v>
+      </c>
+      <c r="H7">
+        <v>9.41176470588235E-2</v>
+      </c>
+      <c r="I7">
+        <v>3.7642886942010803E-2</v>
+      </c>
+      <c r="J7">
+        <v>9.8648648648648599E-2</v>
+      </c>
+      <c r="K7">
+        <v>4.6153846153846097E-3</v>
+      </c>
+      <c r="L7">
+        <v>5.2923076923076899E-3</v>
+      </c>
+      <c r="M7">
+        <v>0.138602564102564</v>
+      </c>
+      <c r="N7">
+        <v>0.108432835820895</v>
+      </c>
+      <c r="O7">
+        <v>0.19394572025052101</v>
+      </c>
+      <c r="P7">
+        <v>1.6324999999999899E-2</v>
+      </c>
+      <c r="Q7">
+        <v>0.17000599999999999</v>
+      </c>
+      <c r="R7">
+        <v>1.6508210890233299E-2</v>
+      </c>
+      <c r="S7">
+        <v>2.3786764705882299E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8">
+        <v>4.9399796907399398E-3</v>
+      </c>
+      <c r="C8">
+        <v>1.1140499895397799E-2</v>
+      </c>
+      <c r="D8">
+        <v>6.3429243976191301E-3</v>
+      </c>
+      <c r="E8">
+        <v>7.2472762404413804E-2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2.84908052748093E-3</v>
+      </c>
+      <c r="G8">
+        <v>2.06445123667592E-2</v>
+      </c>
+      <c r="H8">
+        <v>1.1933066918134E-2</v>
+      </c>
+      <c r="I8">
+        <v>4.7126659034009404E-3</v>
+      </c>
+      <c r="J8">
+        <v>2.02053152914595E-2</v>
+      </c>
+      <c r="K8" s="1">
+        <v>2.0781327685658001E-2</v>
+      </c>
+      <c r="L8">
+        <v>5.2844605620814902E-2</v>
+      </c>
+      <c r="M8">
+        <v>2.86517704103877E-2</v>
+      </c>
+      <c r="N8">
+        <v>1.63993927803791E-2</v>
+      </c>
+      <c r="O8">
+        <v>1.0614267411690701E-2</v>
+      </c>
+      <c r="P8">
+        <v>1.32617694779957E-2</v>
+      </c>
+      <c r="Q8">
+        <v>4.0049574417214398E-3</v>
+      </c>
+      <c r="R8">
+        <v>1.43894626795307E-2</v>
+      </c>
+      <c r="S8">
+        <v>1.13063532056245E-2</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -370,14 +911,1251 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCCE2AEC-273A-44E9-8AA1-D25215D63B1D}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="A1:XFD1048576"/>
+      <selection sqref="A1:S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3.5558730158730199E-2</v>
+      </c>
+      <c r="C2">
+        <v>4.4210526315789402E-2</v>
+      </c>
+      <c r="D2">
+        <v>3.0997706422018202E-2</v>
+      </c>
+      <c r="E2">
+        <v>7.0724615384615303E-2</v>
+      </c>
+      <c r="F2">
+        <v>0.24034923076923001</v>
+      </c>
+      <c r="G2">
+        <v>0.12697435897435799</v>
+      </c>
+      <c r="H2">
+        <v>0.121654411764705</v>
+      </c>
+      <c r="I2">
+        <v>3.7642886942010803E-2</v>
+      </c>
+      <c r="J2">
+        <v>0.16442942942942901</v>
+      </c>
+      <c r="K2">
+        <v>2.12246153846153E-2</v>
+      </c>
+      <c r="L2">
+        <v>5.9944282744282699E-2</v>
+      </c>
+      <c r="M2">
+        <v>0.23229487179487099</v>
+      </c>
+      <c r="N2">
+        <v>0.15969470827679699</v>
+      </c>
+      <c r="O2">
+        <v>0.20014613778705601</v>
+      </c>
+      <c r="P2">
+        <v>5.1199999999999898E-2</v>
+      </c>
+      <c r="Q2">
+        <v>0.17332</v>
+      </c>
+      <c r="R2">
+        <v>3.5678478824546202E-2</v>
+      </c>
+      <c r="S2">
+        <v>4.3823529411764602E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3.2123809523809499E-2</v>
+      </c>
+      <c r="C3">
+        <v>7.5140350877192896E-2</v>
+      </c>
+      <c r="D3">
+        <v>4.1330275229357699E-2</v>
+      </c>
+      <c r="E3">
+        <v>4.2235384615384598E-2</v>
+      </c>
+      <c r="F3">
+        <v>0.24034923076923001</v>
+      </c>
+      <c r="G3">
+        <v>0.14548717948717901</v>
+      </c>
+      <c r="H3">
+        <v>0.13231617647058799</v>
+      </c>
+      <c r="I3">
+        <v>4.87303573911834E-2</v>
+      </c>
+      <c r="J3">
+        <v>0.138228228228228</v>
+      </c>
+      <c r="K3">
+        <v>3.5084615384615402E-2</v>
+      </c>
+      <c r="L3">
+        <v>8.4885654885654804E-2</v>
+      </c>
+      <c r="M3">
+        <v>0.194051282051282</v>
+      </c>
+      <c r="N3">
+        <v>0.151852103120759</v>
+      </c>
+      <c r="O3">
+        <v>0.218747390396659</v>
+      </c>
+      <c r="P3">
+        <v>3.6124999999999997E-2</v>
+      </c>
+      <c r="Q3">
+        <v>0.176926</v>
+      </c>
+      <c r="R3">
+        <v>5.7925669835782199E-2</v>
+      </c>
+      <c r="S3">
+        <v>4.3198529411764601E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2.64666666666666E-2</v>
+      </c>
+      <c r="C4">
+        <v>5.3631578947368398E-2</v>
+      </c>
+      <c r="D4">
+        <v>2.58314220183485E-2</v>
+      </c>
+      <c r="E4">
+        <v>8.2604615384615304E-2</v>
+      </c>
+      <c r="F4">
+        <v>0.24034923076923001</v>
+      </c>
+      <c r="G4">
+        <v>0.17251282051281999</v>
+      </c>
+      <c r="H4">
+        <v>9.41176470588235E-2</v>
+      </c>
+      <c r="I4">
+        <v>3.8112571269642598E-2</v>
+      </c>
+      <c r="J4">
+        <v>0.138783783783783</v>
+      </c>
+      <c r="K4">
+        <v>4.6964615384615403E-2</v>
+      </c>
+      <c r="L4">
+        <v>0.16478669438669399</v>
+      </c>
+      <c r="M4">
+        <v>0.186032051282051</v>
+      </c>
+      <c r="N4">
+        <v>0.131051560379918</v>
+      </c>
+      <c r="O4">
+        <v>0.214302945952215</v>
+      </c>
+      <c r="P4">
+        <v>4.4600000000000001E-2</v>
+      </c>
+      <c r="Q4">
+        <v>0.18026</v>
+      </c>
+      <c r="R4">
+        <v>3.7216940363007697E-2</v>
+      </c>
+      <c r="S4">
+        <v>4.3823529411764602E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3.33365079365079E-2</v>
+      </c>
+      <c r="C5">
+        <v>3.5596491228070098E-2</v>
+      </c>
+      <c r="D5">
+        <v>3.6788990825688102E-2</v>
+      </c>
+      <c r="E5">
+        <v>0.13012461538461501</v>
+      </c>
+      <c r="F5">
+        <v>0.24177384615384601</v>
+      </c>
+      <c r="G5">
+        <v>0.136615384615384</v>
+      </c>
+      <c r="H5">
+        <v>0.110110294117647</v>
+      </c>
+      <c r="I5">
+        <v>4.8516548463356901E-2</v>
+      </c>
+      <c r="J5">
+        <v>0.178363363363363</v>
+      </c>
+      <c r="K5">
+        <v>3.3104615384615399E-2</v>
+      </c>
+      <c r="L5">
+        <v>0.11244241164241101</v>
+      </c>
+      <c r="M5">
+        <v>0.223942307692307</v>
+      </c>
+      <c r="N5">
+        <v>0.16014925373134301</v>
+      </c>
+      <c r="O5">
+        <v>0.212546972860125</v>
+      </c>
+      <c r="P5">
+        <v>4.5225000000000001E-2</v>
+      </c>
+      <c r="Q5">
+        <v>0.18342800000000001</v>
+      </c>
+      <c r="R5">
+        <v>6.9818496110630998E-2</v>
+      </c>
+      <c r="S5">
+        <v>2.44117647058823E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>3.3841269841269797E-2</v>
+      </c>
+      <c r="C6">
+        <v>4.3543859649122801E-2</v>
+      </c>
+      <c r="D6">
+        <v>2.64564220183485E-2</v>
+      </c>
+      <c r="E6">
+        <v>5.6864615384615402E-2</v>
+      </c>
+      <c r="F6">
+        <v>0.241118461538461</v>
+      </c>
+      <c r="G6">
+        <v>0.196051282051282</v>
+      </c>
+      <c r="H6">
+        <v>0.112169117647058</v>
+      </c>
+      <c r="I6">
+        <v>3.9907175636211899E-2</v>
+      </c>
+      <c r="J6">
+        <v>0.16554054054053999</v>
+      </c>
+      <c r="K6">
+        <v>4.8944615384615399E-2</v>
+      </c>
+      <c r="L6">
+        <v>5.9605821205821197E-2</v>
+      </c>
+      <c r="M6">
+        <v>0.138602564102564</v>
+      </c>
+      <c r="N6">
+        <v>0.108432835820895</v>
+      </c>
+      <c r="O6">
+        <v>0.208413361169102</v>
+      </c>
+      <c r="P6">
+        <v>1.6324999999999899E-2</v>
+      </c>
+      <c r="Q6">
+        <v>0.18499199999999899</v>
+      </c>
+      <c r="R6">
+        <v>2.9170267934312901E-2</v>
+      </c>
+      <c r="S6">
+        <v>4.4448529411764602E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>2.7577777777777701E-2</v>
+      </c>
+      <c r="C7">
+        <v>6.5192982456140303E-2</v>
+      </c>
+      <c r="D7">
+        <v>3.9455275229357802E-2</v>
+      </c>
+      <c r="E7">
+        <v>8.2604615384615304E-2</v>
+      </c>
+      <c r="F7">
+        <v>0.239352307692307</v>
+      </c>
+      <c r="G7">
+        <v>0.157076923076923</v>
+      </c>
+      <c r="H7">
+        <v>0.113345588235294</v>
+      </c>
+      <c r="I7">
+        <v>4.7491308580169603E-2</v>
+      </c>
+      <c r="J7">
+        <v>0.15382882882882801</v>
+      </c>
+      <c r="K7">
+        <v>2.0455384615384601E-2</v>
+      </c>
+      <c r="L7">
+        <v>0.138768399168399</v>
+      </c>
+      <c r="M7">
+        <v>0.158641025641025</v>
+      </c>
+      <c r="N7">
+        <v>0.14582767978290301</v>
+      </c>
+      <c r="O7">
+        <v>0.22701461377870499</v>
+      </c>
+      <c r="P7">
+        <v>4.9949999999999897E-2</v>
+      </c>
+      <c r="Q7">
+        <v>0.18317800000000001</v>
+      </c>
+      <c r="R7">
+        <v>5.1417458945548798E-2</v>
+      </c>
+      <c r="S7">
+        <v>2.3786764705882299E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>3.9498412698412602E-2</v>
+      </c>
+      <c r="C8">
+        <v>5.0491228070175399E-2</v>
+      </c>
+      <c r="D8">
+        <v>2.5206422018348499E-2</v>
+      </c>
+      <c r="E8">
+        <v>7.8644615384615299E-2</v>
+      </c>
+      <c r="F8">
+        <v>0.24034923076923001</v>
+      </c>
+      <c r="G8">
+        <v>0.14548717948717901</v>
+      </c>
+      <c r="H8">
+        <v>0.122536764705882</v>
+      </c>
+      <c r="I8">
+        <v>5.1614170490891301E-2</v>
+      </c>
+      <c r="J8">
+        <v>0.15105105105105099</v>
+      </c>
+      <c r="K8">
+        <v>5.1693846153846097E-2</v>
+      </c>
+      <c r="L8">
+        <v>0.192220374220374</v>
+      </c>
+      <c r="M8">
+        <v>0.19538461538461499</v>
+      </c>
+      <c r="N8">
+        <v>0.131960651289009</v>
+      </c>
+      <c r="O8">
+        <v>0.240060310832753</v>
+      </c>
+      <c r="P8">
+        <v>4.2724999999999999E-2</v>
+      </c>
+      <c r="Q8">
+        <v>0.173508</v>
+      </c>
+      <c r="R8">
+        <v>2.6862575626620599E-2</v>
+      </c>
+      <c r="S8">
+        <v>6.3235294117647001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>3.3841269841269797E-2</v>
+      </c>
+      <c r="C9">
+        <v>5.61052631578947E-2</v>
+      </c>
+      <c r="D9">
+        <v>4.1330275229357699E-2</v>
+      </c>
+      <c r="E9">
+        <v>0.194253846153846</v>
+      </c>
+      <c r="F9">
+        <v>0.24034923076923001</v>
+      </c>
+      <c r="G9">
+        <v>0.189487179487179</v>
+      </c>
+      <c r="H9">
+        <v>0.13408088235294099</v>
+      </c>
+      <c r="I9">
+        <v>4.5546864135725201E-2</v>
+      </c>
+      <c r="J9">
+        <v>0.178363363363363</v>
+      </c>
+      <c r="K9">
+        <v>4.6153846153846097E-3</v>
+      </c>
+      <c r="L9">
+        <v>0.11204241164241099</v>
+      </c>
+      <c r="M9">
+        <v>0.18369871794871701</v>
+      </c>
+      <c r="N9">
+        <v>0.13889416553595599</v>
+      </c>
+      <c r="O9">
+        <v>0.222881002087682</v>
+      </c>
+      <c r="P9">
+        <v>5.9049999999999998E-2</v>
+      </c>
+      <c r="Q9">
+        <v>0.18365799999999999</v>
+      </c>
+      <c r="R9">
+        <v>7.2895419187554003E-2</v>
+      </c>
+      <c r="S9">
+        <v>4.4448529411764602E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>3.8387301587301498E-2</v>
+      </c>
+      <c r="C10">
+        <v>3.80701754385964E-2</v>
+      </c>
+      <c r="D10">
+        <v>3.6163990825688101E-2</v>
+      </c>
+      <c r="E10">
+        <v>1.05553846153846E-2</v>
+      </c>
+      <c r="F10">
+        <v>0.25277076923076902</v>
+      </c>
+      <c r="G10">
+        <v>0.188717948717948</v>
+      </c>
+      <c r="H10">
+        <v>0.11749999999999999</v>
+      </c>
+      <c r="I10">
+        <v>3.88819357530246E-2</v>
+      </c>
+      <c r="J10">
+        <v>0.13989489489489401</v>
+      </c>
+      <c r="K10">
+        <v>1.9244615384615301E-2</v>
+      </c>
+      <c r="L10">
+        <v>0.110965488565488</v>
+      </c>
+      <c r="M10">
+        <v>0.204070512820512</v>
+      </c>
+      <c r="N10">
+        <v>0.124118046132971</v>
+      </c>
+      <c r="O10">
+        <v>0.22050336348874899</v>
+      </c>
+      <c r="P10">
+        <v>6.1899999999999997E-2</v>
+      </c>
+      <c r="Q10">
+        <v>0.17480000000000001</v>
+      </c>
+      <c r="R10">
+        <v>3.7986171132238497E-2</v>
+      </c>
+      <c r="S10">
+        <v>4.5698529411764603E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>3.2123809523809499E-2</v>
+      </c>
+      <c r="C11">
+        <v>5.2298245614035101E-2</v>
+      </c>
+      <c r="D11">
+        <v>3.6788990825688102E-2</v>
+      </c>
+      <c r="E11">
+        <v>5.8844615384615398E-2</v>
+      </c>
+      <c r="F11">
+        <v>0.241118461538461</v>
+      </c>
+      <c r="G11">
+        <v>0.15938461538461501</v>
+      </c>
+      <c r="H11">
+        <v>0.123419117647058</v>
+      </c>
+      <c r="I11">
+        <v>4.2663051036017197E-2</v>
+      </c>
+      <c r="J11">
+        <v>0.178363363363363</v>
+      </c>
+      <c r="K11">
+        <v>1.7264615384615298E-2</v>
+      </c>
+      <c r="L11">
+        <v>0.13839916839916799</v>
+      </c>
+      <c r="M11">
+        <v>0.19538461538461499</v>
+      </c>
+      <c r="N11">
+        <v>0.12548168249660699</v>
+      </c>
+      <c r="O11">
+        <v>0.21128044537230301</v>
+      </c>
+      <c r="P11">
+        <v>6.1899999999999997E-2</v>
+      </c>
+      <c r="Q11">
+        <v>0.17782199999999901</v>
+      </c>
+      <c r="R11">
+        <v>1.6508210890233299E-2</v>
+      </c>
+      <c r="S11">
+        <v>4.3198529411764601E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>3.2123809523809499E-2</v>
+      </c>
+      <c r="C12">
+        <v>4.9824561403508799E-2</v>
+      </c>
+      <c r="D12">
+        <v>3.7413990825688102E-2</v>
+      </c>
+      <c r="E12">
+        <v>0.134084615384615</v>
+      </c>
+      <c r="F12">
+        <v>0.24023538461538399</v>
+      </c>
+      <c r="G12">
+        <v>0.170974358974359</v>
+      </c>
+      <c r="H12">
+        <v>0.13911764705882301</v>
+      </c>
+      <c r="I12">
+        <v>4.1360033375052098E-2</v>
+      </c>
+      <c r="J12">
+        <v>0.138228228228228</v>
+      </c>
+      <c r="K12">
+        <v>2.7164615384615402E-2</v>
+      </c>
+      <c r="L12">
+        <v>0.164971309771309</v>
+      </c>
+      <c r="M12">
+        <v>0.17701282051282</v>
+      </c>
+      <c r="N12">
+        <v>0.139348710990502</v>
+      </c>
+      <c r="O12">
+        <v>0.216680584551148</v>
+      </c>
+      <c r="P12">
+        <v>1.6949999999999899E-2</v>
+      </c>
+      <c r="Q12">
+        <v>0.18055199999999899</v>
+      </c>
+      <c r="R12">
+        <v>3.95246326707E-2</v>
+      </c>
+      <c r="S12">
+        <v>4.5073529411764603E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>3.3841269841269797E-2</v>
+      </c>
+      <c r="C13">
+        <v>4.25438596491228E-2</v>
+      </c>
+      <c r="D13">
+        <v>2.7706422018348598E-2</v>
+      </c>
+      <c r="E13">
+        <v>0.13012461538461501</v>
+      </c>
+      <c r="F13">
+        <v>0.24034923076923001</v>
+      </c>
+      <c r="G13">
+        <v>0.122717948717948</v>
+      </c>
+      <c r="H13">
+        <v>0.13852941176470501</v>
+      </c>
+      <c r="I13">
+        <v>4.8516548463356901E-2</v>
+      </c>
+      <c r="J13">
+        <v>0.15382882882882801</v>
+      </c>
+      <c r="K13">
+        <v>4.9713846153846102E-2</v>
+      </c>
+      <c r="L13">
+        <v>8.4424116424116305E-2</v>
+      </c>
+      <c r="M13">
+        <v>0.16749358974358899</v>
+      </c>
+      <c r="N13">
+        <v>0.151852103120759</v>
+      </c>
+      <c r="O13">
+        <v>0.19394572025052101</v>
+      </c>
+      <c r="P13">
+        <v>5.3699999999999901E-2</v>
+      </c>
+      <c r="Q13">
+        <v>0.17000599999999999</v>
+      </c>
+      <c r="R13">
+        <v>3.95246326707E-2</v>
+      </c>
+      <c r="S13">
+        <v>2.44117647058823E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>3.27301587301587E-2</v>
+      </c>
+      <c r="C14">
+        <v>5.4631578947368399E-2</v>
+      </c>
+      <c r="D14">
+        <v>4.1330275229357699E-2</v>
+      </c>
+      <c r="E14">
+        <v>6.2804615384615403E-2</v>
+      </c>
+      <c r="F14">
+        <v>0.24034923076923001</v>
+      </c>
+      <c r="G14">
+        <v>0.157846153846153</v>
+      </c>
+      <c r="H14">
+        <v>0.105073529411764</v>
+      </c>
+      <c r="I14">
+        <v>4.5141148658044798E-2</v>
+      </c>
+      <c r="J14">
+        <v>0.152717717717717</v>
+      </c>
+      <c r="K14">
+        <v>4.4984615384615401E-2</v>
+      </c>
+      <c r="L14">
+        <v>0.24625696465696401</v>
+      </c>
+      <c r="M14">
+        <v>0.20340384615384599</v>
+      </c>
+      <c r="N14">
+        <v>0.13798507462686499</v>
+      </c>
+      <c r="O14">
+        <v>0.22257016933426099</v>
+      </c>
+      <c r="P14">
+        <v>5.6550000000000003E-2</v>
+      </c>
+      <c r="Q14">
+        <v>0.17232</v>
+      </c>
+      <c r="R14">
+        <v>7.0587726879861701E-2</v>
+      </c>
+      <c r="S14">
+        <v>2.44117647058823E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>2.1415873015872999E-2</v>
+      </c>
+      <c r="C15">
+        <v>7.3473684210526302E-2</v>
+      </c>
+      <c r="D15">
+        <v>2.7081422018348501E-2</v>
+      </c>
+      <c r="E15">
+        <v>0.25915230769230702</v>
+      </c>
+      <c r="F15">
+        <v>0.241118461538461</v>
+      </c>
+      <c r="G15">
+        <v>0.15938461538461501</v>
+      </c>
+      <c r="H15">
+        <v>0.107426470588235</v>
+      </c>
+      <c r="I15">
+        <v>5.31949659296342E-2</v>
+      </c>
+      <c r="J15">
+        <v>0.17614114114114099</v>
+      </c>
+      <c r="K15">
+        <v>8.8103076923076798E-2</v>
+      </c>
+      <c r="L15">
+        <v>0.11210395010395</v>
+      </c>
+      <c r="M15">
+        <v>0.148621794871794</v>
+      </c>
+      <c r="N15">
+        <v>0.16014925373134301</v>
+      </c>
+      <c r="O15">
+        <v>0.22272558571097101</v>
+      </c>
+      <c r="P15">
+        <v>3.0149999999999899E-2</v>
+      </c>
+      <c r="Q15">
+        <v>0.17851</v>
+      </c>
+      <c r="R15">
+        <v>4.7571305099394903E-2</v>
+      </c>
+      <c r="S15">
+        <v>2.3786764705882299E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>3.3841269841269797E-2</v>
+      </c>
+      <c r="C16">
+        <v>4.8824561403508798E-2</v>
+      </c>
+      <c r="D16">
+        <v>4.0080275229357698E-2</v>
+      </c>
+      <c r="E16">
+        <v>0.19821384615384599</v>
+      </c>
+      <c r="F16">
+        <v>0.241118461538461</v>
+      </c>
+      <c r="G16">
+        <v>0.16594871794871699</v>
+      </c>
+      <c r="H16">
+        <v>0.124007352941176</v>
+      </c>
+      <c r="I16">
+        <v>4.65940063968849E-2</v>
+      </c>
+      <c r="J16">
+        <v>0.12540540540540501</v>
+      </c>
+      <c r="K16">
+        <v>5.48846153846154E-2</v>
+      </c>
+      <c r="L16">
+        <v>0.16558669438669399</v>
+      </c>
+      <c r="M16">
+        <v>0.18686538461538399</v>
+      </c>
+      <c r="N16">
+        <v>0.114911804613297</v>
+      </c>
+      <c r="O16">
+        <v>0.212546972860125</v>
+      </c>
+      <c r="P16">
+        <v>4.9324999999999897E-2</v>
+      </c>
+      <c r="Q16">
+        <v>0.17949000000000001</v>
+      </c>
+      <c r="R16">
+        <v>4.8340535868625703E-2</v>
+      </c>
+      <c r="S16">
+        <v>4.4448529411764602E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>2.3133333333333301E-2</v>
+      </c>
+      <c r="C17">
+        <v>6.9666666666666599E-2</v>
+      </c>
+      <c r="D17">
+        <v>2.5206422018348499E-2</v>
+      </c>
+      <c r="E17">
+        <v>0.25365384615384601</v>
+      </c>
+      <c r="F17">
+        <v>0.24034923076923001</v>
+      </c>
+      <c r="G17">
+        <v>0.143948717948717</v>
+      </c>
+      <c r="H17">
+        <v>0.124007352941176</v>
+      </c>
+      <c r="I17">
+        <v>5.2297663746349601E-2</v>
+      </c>
+      <c r="J17">
+        <v>0.12651651651651599</v>
+      </c>
+      <c r="K17">
+        <v>3.3873846153846102E-2</v>
+      </c>
+      <c r="L17">
+        <v>8.5593347193347102E-2</v>
+      </c>
+      <c r="M17">
+        <v>0.14645512820512799</v>
+      </c>
+      <c r="N17">
+        <v>0.15321573948439601</v>
+      </c>
+      <c r="O17">
+        <v>0.222881002087682</v>
+      </c>
+      <c r="P17">
+        <v>4.1474999999999998E-2</v>
+      </c>
+      <c r="Q17">
+        <v>0.18055199999999899</v>
+      </c>
+      <c r="R17">
+        <v>3.7986171132238497E-2</v>
+      </c>
+      <c r="S17">
+        <v>2.3786764705882299E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>2.8184126984126999E-2</v>
+      </c>
+      <c r="C18">
+        <v>4.9824561403508799E-2</v>
+      </c>
+      <c r="D18">
+        <v>4.5246559633027497E-2</v>
+      </c>
+      <c r="E18">
+        <v>4.6153846153846097E-3</v>
+      </c>
+      <c r="F18">
+        <v>0.242215384615384</v>
+      </c>
+      <c r="G18">
+        <v>0.157846153846153</v>
+      </c>
+      <c r="H18">
+        <v>0.11691176470588199</v>
+      </c>
+      <c r="I18">
+        <v>5.0439090529828999E-2</v>
+      </c>
+      <c r="J18">
+        <v>0.16554054054053999</v>
+      </c>
+      <c r="K18">
+        <v>8.1393846153846094E-2</v>
+      </c>
+      <c r="L18">
+        <v>8.5808731808731706E-2</v>
+      </c>
+      <c r="M18">
+        <v>0.140102564102564</v>
+      </c>
+      <c r="N18">
+        <v>0.115366350067842</v>
+      </c>
+      <c r="O18">
+        <v>0.199835305033634</v>
+      </c>
+      <c r="P18">
+        <v>3.07749999999999E-2</v>
+      </c>
+      <c r="Q18">
+        <v>0.17752999999999999</v>
+      </c>
+      <c r="R18">
+        <v>3.6447709593776897E-2</v>
+      </c>
+      <c r="S18">
+        <v>4.4448529411764602E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>2.3133333333333301E-2</v>
+      </c>
+      <c r="C19">
+        <v>5.8912280701754298E-2</v>
+      </c>
+      <c r="D19">
+        <v>3.2872706422018297E-2</v>
+      </c>
+      <c r="E19">
+        <v>0.194253846153846</v>
+      </c>
+      <c r="F19">
+        <v>0.239793846153846</v>
+      </c>
+      <c r="G19">
+        <v>0.18138461538461501</v>
+      </c>
+      <c r="H19">
+        <v>0.13823529411764701</v>
+      </c>
+      <c r="I19">
+        <v>4.5290988735919899E-2</v>
+      </c>
+      <c r="J19">
+        <v>0.152162162162162</v>
+      </c>
+      <c r="K19">
+        <v>2.7164615384615402E-2</v>
+      </c>
+      <c r="L19">
+        <v>5.2923076923076899E-3</v>
+      </c>
+      <c r="M19">
+        <v>0.16649358974358899</v>
+      </c>
+      <c r="N19">
+        <v>0.131051560379918</v>
+      </c>
+      <c r="O19">
+        <v>0.204279749478079</v>
+      </c>
+      <c r="P19">
+        <v>4.3975E-2</v>
+      </c>
+      <c r="Q19">
+        <v>0.17840600000000001</v>
+      </c>
+      <c r="R19">
+        <v>4.1063094209161599E-2</v>
+      </c>
+      <c r="S19">
+        <v>2.44117647058823E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>2.4749206349206299E-2</v>
+      </c>
+      <c r="C20">
+        <v>4.6017543859649103E-2</v>
+      </c>
+      <c r="D20">
+        <v>2.7706422018348598E-2</v>
+      </c>
+      <c r="E20">
+        <v>9.8444615384615297E-2</v>
+      </c>
+      <c r="F20">
+        <v>0.24034923076923001</v>
+      </c>
+      <c r="G20">
+        <v>0.12774358974358899</v>
+      </c>
+      <c r="H20">
+        <v>0.121654411764705</v>
+      </c>
+      <c r="I20">
+        <v>4.1146224447225703E-2</v>
+      </c>
+      <c r="J20">
+        <v>9.8648648648648599E-2</v>
+      </c>
+      <c r="K20">
+        <v>5.3673846153846197E-2</v>
+      </c>
+      <c r="L20">
+        <v>0.16555592515592499</v>
+      </c>
+      <c r="M20">
+        <v>0.18369871794871701</v>
+      </c>
+      <c r="N20">
+        <v>0.131051560379918</v>
+      </c>
+      <c r="O20">
+        <v>0.212546972860125</v>
+      </c>
+      <c r="P20">
+        <v>5.1199999999999898E-2</v>
+      </c>
+      <c r="Q20">
+        <v>0.18213599999999999</v>
+      </c>
+      <c r="R20">
+        <v>3.7986171132238497E-2</v>
+      </c>
+      <c r="S20">
+        <v>2.6286764705882301E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>3.2123809523809499E-2</v>
+      </c>
+      <c r="C21">
+        <v>3.8403508771929801E-2</v>
+      </c>
+      <c r="D21">
+        <v>3.2247706422018199E-2</v>
+      </c>
+      <c r="E21">
+        <v>7.2704615384615298E-2</v>
+      </c>
+      <c r="F21">
+        <v>0.23737230769230699</v>
+      </c>
+      <c r="G21">
+        <v>0.16594871794871699</v>
+      </c>
+      <c r="H21">
+        <v>0.13319852941176399</v>
+      </c>
+      <c r="I21">
+        <v>4.2599082186065902E-2</v>
+      </c>
+      <c r="J21">
+        <v>0.142672672672672</v>
+      </c>
+      <c r="K21">
+        <v>6.15938461538462E-2</v>
+      </c>
+      <c r="L21">
+        <v>0.13824532224532199</v>
+      </c>
+      <c r="M21">
+        <v>0.242480769230769</v>
+      </c>
+      <c r="N21">
+        <v>0.108432835820895</v>
+      </c>
+      <c r="O21">
+        <v>0.204279749478079</v>
+      </c>
+      <c r="P21">
+        <v>2.6675000000000001E-2</v>
+      </c>
+      <c r="Q21">
+        <v>0.17777999999999999</v>
+      </c>
+      <c r="R21">
+        <v>5.1417458945548798E-2</v>
+      </c>
+      <c r="S21">
+        <v>4.5073529411764603E-2</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
